--- a/Gannt.xlsx
+++ b/Gannt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187437B-9022-4570-9997-0F4F97366B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1363B4-301F-4CE8-95DD-C934CD56C569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -46,9 +46,6 @@
     <t>PROGRESS</t>
   </si>
   <si>
-    <t>PROJECT TITLE</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
   </si>
   <si>
     <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Project Lead</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -219,6 +210,12 @@
   </si>
   <si>
     <t>Background</t>
+  </si>
+  <si>
+    <t>Suppressing Grating Lobes</t>
+  </si>
+  <si>
+    <t>Walt Deyzel</t>
   </si>
 </sst>
 </file>
@@ -729,9 +726,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,6 +759,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -774,34 +798,7 @@
     <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1315,8 +1312,8 @@
   <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1334,385 +1331,385 @@
   <sheetData>
     <row r="1" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="42"/>
       <c r="G1" s="1"/>
       <c r="H1" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="64">
+        <v>15</v>
+      </c>
+      <c r="B3" s="68">
+        <v>21750793</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="69">
         <v>44411</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="60"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="61">
+        <v>10</v>
+      </c>
+      <c r="H4" s="70">
         <f>H5</f>
-        <v>44410</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="61">
+        <v>44473</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="70">
         <f>O5</f>
-        <v>44417</v>
-      </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="61">
+        <v>44480</v>
+      </c>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="70">
         <f>V5</f>
-        <v>44424</v>
-      </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="61">
+        <v>44487</v>
+      </c>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="70">
         <f>AC5</f>
-        <v>44431</v>
-      </c>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="61">
+        <v>44494</v>
+      </c>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="70">
         <f>AJ5</f>
-        <v>44438</v>
-      </c>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="61">
+        <v>44501</v>
+      </c>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="70">
         <f>AQ5</f>
-        <v>44445</v>
-      </c>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="61">
+        <v>44508</v>
+      </c>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="70">
         <f>AX5</f>
-        <v>44452</v>
-      </c>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="61">
+        <v>44515</v>
+      </c>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="70">
         <f>BE5</f>
-        <v>44459</v>
-      </c>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="63"/>
+        <v>44522</v>
+      </c>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="72"/>
     </row>
     <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="H5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44410</v>
+        <v>44473</v>
       </c>
       <c r="I5" s="9">
         <f>H5+1</f>
-        <v>44411</v>
+        <v>44474</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
-        <v>44412</v>
+        <v>44475</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="0"/>
-        <v>44413</v>
+        <v>44476</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>44414</v>
+        <v>44477</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>44415</v>
+        <v>44478</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>44416</v>
+        <v>44479</v>
       </c>
       <c r="O5" s="10">
         <f>N5+1</f>
-        <v>44417</v>
+        <v>44480</v>
       </c>
       <c r="P5" s="9">
         <f>O5+1</f>
-        <v>44418</v>
+        <v>44481</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>44419</v>
+        <v>44482</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>44420</v>
+        <v>44483</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="0"/>
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="0"/>
-        <v>44422</v>
+        <v>44485</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="0"/>
-        <v>44423</v>
+        <v>44486</v>
       </c>
       <c r="V5" s="10">
         <f>U5+1</f>
-        <v>44424</v>
+        <v>44487</v>
       </c>
       <c r="W5" s="9">
         <f>V5+1</f>
-        <v>44425</v>
+        <v>44488</v>
       </c>
       <c r="X5" s="9">
         <f t="shared" si="0"/>
-        <v>44426</v>
+        <v>44489</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="0"/>
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="0"/>
-        <v>44428</v>
+        <v>44491</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="0"/>
-        <v>44429</v>
+        <v>44492</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="0"/>
-        <v>44430</v>
+        <v>44493</v>
       </c>
       <c r="AC5" s="10">
         <f>AB5+1</f>
-        <v>44431</v>
+        <v>44494</v>
       </c>
       <c r="AD5" s="9">
         <f>AC5+1</f>
-        <v>44432</v>
+        <v>44495</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="0"/>
-        <v>44433</v>
+        <v>44496</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="0"/>
-        <v>44434</v>
+        <v>44497</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="0"/>
-        <v>44435</v>
+        <v>44498</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>44436</v>
+        <v>44499</v>
       </c>
       <c r="AI5" s="11">
         <f t="shared" si="0"/>
-        <v>44437</v>
+        <v>44500</v>
       </c>
       <c r="AJ5" s="10">
         <f>AI5+1</f>
-        <v>44438</v>
+        <v>44501</v>
       </c>
       <c r="AK5" s="9">
         <f>AJ5+1</f>
-        <v>44439</v>
+        <v>44502</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" si="0"/>
-        <v>44440</v>
+        <v>44503</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="0"/>
-        <v>44441</v>
+        <v>44504</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="0"/>
-        <v>44442</v>
+        <v>44505</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="0"/>
-        <v>44443</v>
+        <v>44506</v>
       </c>
       <c r="AP5" s="11">
         <f t="shared" si="0"/>
-        <v>44444</v>
+        <v>44507</v>
       </c>
       <c r="AQ5" s="10">
         <f>AP5+1</f>
-        <v>44445</v>
+        <v>44508</v>
       </c>
       <c r="AR5" s="9">
         <f>AQ5+1</f>
-        <v>44446</v>
+        <v>44509</v>
       </c>
       <c r="AS5" s="9">
         <f t="shared" si="0"/>
-        <v>44447</v>
+        <v>44510</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" si="0"/>
-        <v>44448</v>
+        <v>44511</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="0"/>
-        <v>44449</v>
+        <v>44512</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="0"/>
-        <v>44450</v>
+        <v>44513</v>
       </c>
       <c r="AW5" s="11">
         <f t="shared" si="0"/>
-        <v>44451</v>
+        <v>44514</v>
       </c>
       <c r="AX5" s="10">
         <f>AW5+1</f>
-        <v>44452</v>
+        <v>44515</v>
       </c>
       <c r="AY5" s="9">
         <f>AX5+1</f>
-        <v>44453</v>
+        <v>44516</v>
       </c>
       <c r="AZ5" s="9">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
-        <v>44454</v>
+        <v>44517</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" si="1"/>
-        <v>44455</v>
+        <v>44518</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" si="1"/>
-        <v>44456</v>
+        <v>44519</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="1"/>
-        <v>44457</v>
+        <v>44520</v>
       </c>
       <c r="BD5" s="11">
         <f t="shared" si="1"/>
-        <v>44458</v>
+        <v>44521</v>
       </c>
       <c r="BE5" s="10">
         <f>BD5+1</f>
-        <v>44459</v>
+        <v>44522</v>
       </c>
       <c r="BF5" s="9">
         <f>BE5+1</f>
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="BG5" s="9">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
-        <v>44461</v>
+        <v>44524</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" si="2"/>
-        <v>44462</v>
+        <v>44525</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="2"/>
-        <v>44463</v>
+        <v>44526</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="2"/>
-        <v>44464</v>
+        <v>44527</v>
       </c>
       <c r="BK5" s="11">
         <f t="shared" si="2"/>
-        <v>44465</v>
+        <v>44528</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="12" t="str">
         <f t="shared" ref="H6" si="3">LEFT(TEXT(H5,"ddd"),1)</f>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7"/>
       <c r="G7" t="str">
@@ -2007,10 +2004,10 @@
     </row>
     <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -2079,18 +2076,18 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <v>44411</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <v>44412</v>
       </c>
       <c r="F9" s="15"/>
@@ -2157,18 +2154,18 @@
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <v>44411</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>44412</v>
       </c>
       <c r="F10" s="15"/>
@@ -2235,18 +2232,19 @@
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
-      <c r="B11" s="55" t="s">
-        <v>28</v>
+      <c r="B11" s="54" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="50">
-        <v>44431</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="D11" s="49">
+        <f>D21</f>
+        <v>44462</v>
+      </c>
+      <c r="E11" s="49">
         <f>D11+1</f>
-        <v>44432</v>
+        <v>44463</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15">
@@ -2312,14 +2310,14 @@
     </row>
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="str">
         <f t="shared" si="6"/>
@@ -2384,23 +2382,23 @@
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
-      <c r="B13" s="56" t="s">
-        <v>30</v>
+      <c r="B13" s="55" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="23">
         <v>0</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>44416</v>
       </c>
-      <c r="E13" s="51">
-        <f>D13+4</f>
-        <v>44420</v>
+      <c r="E13" s="50">
+        <f>D13+7</f>
+        <v>44423</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
@@ -2461,19 +2459,19 @@
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="56" t="s">
-        <v>48</v>
+      <c r="B14" s="55" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="23">
         <v>0</v>
       </c>
-      <c r="D14" s="51">
-        <f>E13</f>
-        <v>44420</v>
-      </c>
-      <c r="E14" s="51">
-        <f>D14+3</f>
-        <v>44423</v>
+      <c r="D14" s="50">
+        <f>E13+1</f>
+        <v>44424</v>
+      </c>
+      <c r="E14" s="50">
+        <f>D14+7</f>
+        <v>44431</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2536,19 +2534,19 @@
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
-      <c r="B15" s="56" t="s">
-        <v>31</v>
+      <c r="B15" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
       </c>
-      <c r="D15" s="51">
-        <f>E14</f>
-        <v>44423</v>
-      </c>
-      <c r="E15" s="51">
+      <c r="D15" s="50">
+        <f>E14+1</f>
+        <v>44432</v>
+      </c>
+      <c r="E15" s="50">
         <f>D15+3</f>
-        <v>44426</v>
+        <v>44435</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -2614,24 +2612,24 @@
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43"/>
-      <c r="B16" s="56" t="s">
-        <v>32</v>
+      <c r="B16" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
       </c>
-      <c r="D16" s="51">
-        <f>E15</f>
-        <v>44426</v>
-      </c>
-      <c r="E16" s="51">
-        <f>D16+3</f>
-        <v>44429</v>
+      <c r="D16" s="50">
+        <f>E15+1</f>
+        <v>44436</v>
+      </c>
+      <c r="E16" s="50">
+        <f>D16+7</f>
+        <v>44443</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -2692,19 +2690,19 @@
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43"/>
-      <c r="B17" s="56" t="s">
-        <v>33</v>
+      <c r="B17" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
-      <c r="D17" s="51">
-        <f>E16</f>
-        <v>44429</v>
-      </c>
-      <c r="E17" s="51">
+      <c r="D17" s="50">
+        <f>E16+1</f>
+        <v>44444</v>
+      </c>
+      <c r="E17" s="50">
         <f>D17+2</f>
-        <v>44431</v>
+        <v>44446</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -2770,19 +2768,19 @@
     </row>
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43"/>
-      <c r="B18" s="56" t="s">
-        <v>34</v>
+      <c r="B18" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="23">
         <v>0</v>
       </c>
-      <c r="D18" s="51">
-        <f>E17</f>
-        <v>44431</v>
-      </c>
-      <c r="E18" s="51">
+      <c r="D18" s="50">
+        <f>E17+1</f>
+        <v>44447</v>
+      </c>
+      <c r="E18" s="50">
         <f>D18+3</f>
-        <v>44434</v>
+        <v>44450</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
@@ -2848,10 +2846,10 @@
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
@@ -2920,23 +2918,24 @@
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
-      <c r="B20" s="57" t="s">
-        <v>36</v>
+      <c r="B20" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="28">
         <v>0</v>
       </c>
-      <c r="D20" s="52">
-        <v>44434</v>
-      </c>
-      <c r="E20" s="52">
-        <f>D20+5</f>
-        <v>44439</v>
+      <c r="D20" s="51">
+        <f>E18+1</f>
+        <v>44451</v>
+      </c>
+      <c r="E20" s="51">
+        <f>D20+21</f>
+        <v>44472</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
@@ -2997,24 +2996,24 @@
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43"/>
-      <c r="B21" s="57" t="s">
-        <v>37</v>
+      <c r="B21" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="28">
         <v>0</v>
       </c>
-      <c r="D21" s="52">
-        <f>E20+1</f>
-        <v>44440</v>
-      </c>
-      <c r="E21" s="52">
-        <f>D21+4</f>
-        <v>44444</v>
+      <c r="D21" s="51">
+        <f>E20-10</f>
+        <v>44462</v>
+      </c>
+      <c r="E21" s="51">
+        <f>D21+18</f>
+        <v>44480</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -3075,24 +3074,24 @@
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
-      <c r="B22" s="57" t="s">
-        <v>38</v>
+      <c r="B22" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="28">
         <v>0</v>
       </c>
-      <c r="D22" s="52">
-        <f>D21+5</f>
-        <v>44445</v>
-      </c>
-      <c r="E22" s="52">
-        <f>D22+5</f>
-        <v>44450</v>
+      <c r="D22" s="51">
+        <f>D20</f>
+        <v>44451</v>
+      </c>
+      <c r="E22" s="51">
+        <f>D22+31</f>
+        <v>44482</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
@@ -3153,10 +3152,10 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
@@ -3225,22 +3224,23 @@
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43"/>
-      <c r="B24" s="58" t="s">
-        <v>46</v>
+      <c r="B24" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="33">
         <v>0</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="52">
         <v>44428</v>
       </c>
-      <c r="E24" s="53">
-        <v>44509</v>
+      <c r="E24" s="52">
+        <f>D26</f>
+        <v>44489</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
@@ -3301,15 +3301,15 @@
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43"/>
-      <c r="B25" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>12</v>
+      <c r="B25" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>9</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="e">
@@ -3375,23 +3375,23 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43"/>
-      <c r="B26" s="68" t="s">
-        <v>42</v>
+      <c r="B26" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
       </c>
-      <c r="D26" s="69">
-        <v>44459</v>
-      </c>
-      <c r="E26" s="69">
-        <f>D26+1</f>
-        <v>44460</v>
+      <c r="D26" s="63">
+        <v>44489</v>
+      </c>
+      <c r="E26" s="63">
+        <f>D26+4</f>
+        <v>44493</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
@@ -3452,23 +3452,23 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43"/>
-      <c r="B27" s="68" t="s">
-        <v>41</v>
+      <c r="B27" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="C27" s="22">
         <v>0</v>
       </c>
-      <c r="D27" s="69">
-        <v>44505</v>
-      </c>
-      <c r="E27" s="69">
-        <f>D28</f>
-        <v>44509</v>
+      <c r="D27" s="63">
+        <v>44494</v>
+      </c>
+      <c r="E27" s="63">
+        <f>D27+7</f>
+        <v>44501</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
@@ -3529,16 +3529,16 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
-      <c r="B28" s="68" t="s">
-        <v>43</v>
+      <c r="B28" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="22">
         <v>0</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="63">
         <v>44509</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="63">
         <f>D28 +1</f>
         <v>44510</v>
       </c>
@@ -3603,16 +3603,16 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
-      <c r="B29" s="68" t="s">
-        <v>44</v>
+      <c r="B29" s="62" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="22">
         <v>0</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="63">
         <v>44516</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="63">
         <f xml:space="preserve"> D29+1</f>
         <v>44517</v>
       </c>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43"/>
-      <c r="B30" s="68" t="s">
-        <v>45</v>
+      <c r="B30" s="62" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="22">
         <v>0</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="63">
         <v>44525</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="63">
         <f>D30+1</f>
         <v>44526</v>
       </c>
@@ -3751,12 +3751,12 @@
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="59"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="58"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="str">
         <f t="shared" si="6"/>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>0</v>
@@ -3953,7 +3953,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E17 E21:E22 D22" formula="1"/>
+    <ignoredError sqref="E17" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/Gannt.xlsx
+++ b/Gannt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1363B4-301F-4CE8-95DD-C934CD56C569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455A3AA5-B83E-4651-9C32-1CC9958002DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-492" yWindow="2064" windowWidth="19812" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -786,19 +786,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1312,8 +1312,8 @@
   <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1363,10 +1363,10 @@
         <v>21750793</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="69">
+      <c r="D3" s="73">
         <v>44411</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" s="70">
         <f>H5</f>
-        <v>44473</v>
+        <v>44438</v>
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
@@ -1388,7 +1388,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="70">
         <f>O5</f>
-        <v>44480</v>
+        <v>44445</v>
       </c>
       <c r="P4" s="71"/>
       <c r="Q4" s="71"/>
@@ -1398,7 +1398,7 @@
       <c r="U4" s="72"/>
       <c r="V4" s="70">
         <f>V5</f>
-        <v>44487</v>
+        <v>44452</v>
       </c>
       <c r="W4" s="71"/>
       <c r="X4" s="71"/>
@@ -1408,7 +1408,7 @@
       <c r="AB4" s="72"/>
       <c r="AC4" s="70">
         <f>AC5</f>
-        <v>44494</v>
+        <v>44459</v>
       </c>
       <c r="AD4" s="71"/>
       <c r="AE4" s="71"/>
@@ -1418,7 +1418,7 @@
       <c r="AI4" s="72"/>
       <c r="AJ4" s="70">
         <f>AJ5</f>
-        <v>44501</v>
+        <v>44466</v>
       </c>
       <c r="AK4" s="71"/>
       <c r="AL4" s="71"/>
@@ -1428,7 +1428,7 @@
       <c r="AP4" s="72"/>
       <c r="AQ4" s="70">
         <f>AQ5</f>
-        <v>44508</v>
+        <v>44473</v>
       </c>
       <c r="AR4" s="71"/>
       <c r="AS4" s="71"/>
@@ -1438,7 +1438,7 @@
       <c r="AW4" s="72"/>
       <c r="AX4" s="70">
         <f>AX5</f>
-        <v>44515</v>
+        <v>44480</v>
       </c>
       <c r="AY4" s="71"/>
       <c r="AZ4" s="71"/>
@@ -1448,7 +1448,7 @@
       <c r="BD4" s="72"/>
       <c r="BE4" s="70">
         <f>BE5</f>
-        <v>44522</v>
+        <v>44487</v>
       </c>
       <c r="BF4" s="71"/>
       <c r="BG4" s="71"/>
@@ -1461,234 +1461,234 @@
       <c r="A5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="H5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44473</v>
+        <v>44438</v>
       </c>
       <c r="I5" s="9">
         <f>H5+1</f>
-        <v>44474</v>
+        <v>44439</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
-        <v>44475</v>
+        <v>44440</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44441</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>44442</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>44443</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>44444</v>
       </c>
       <c r="O5" s="10">
         <f>N5+1</f>
-        <v>44480</v>
+        <v>44445</v>
       </c>
       <c r="P5" s="9">
         <f>O5+1</f>
-        <v>44481</v>
+        <v>44446</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>44447</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>44448</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>44449</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>44450</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>44451</v>
       </c>
       <c r="V5" s="10">
         <f>U5+1</f>
-        <v>44487</v>
+        <v>44452</v>
       </c>
       <c r="W5" s="9">
         <f>V5+1</f>
-        <v>44488</v>
+        <v>44453</v>
       </c>
       <c r="X5" s="9">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>44455</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>44456</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="0"/>
-        <v>44492</v>
+        <v>44457</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="0"/>
-        <v>44493</v>
+        <v>44458</v>
       </c>
       <c r="AC5" s="10">
         <f>AB5+1</f>
-        <v>44494</v>
+        <v>44459</v>
       </c>
       <c r="AD5" s="9">
         <f>AC5+1</f>
-        <v>44495</v>
+        <v>44460</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="0"/>
-        <v>44496</v>
+        <v>44461</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>44462</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>44463</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>44464</v>
       </c>
       <c r="AI5" s="11">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>44465</v>
       </c>
       <c r="AJ5" s="10">
         <f>AI5+1</f>
-        <v>44501</v>
+        <v>44466</v>
       </c>
       <c r="AK5" s="9">
         <f>AJ5+1</f>
-        <v>44502</v>
+        <v>44467</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44468</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44470</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44471</v>
       </c>
       <c r="AP5" s="11">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44472</v>
       </c>
       <c r="AQ5" s="10">
         <f>AP5+1</f>
-        <v>44508</v>
+        <v>44473</v>
       </c>
       <c r="AR5" s="9">
         <f>AQ5+1</f>
-        <v>44509</v>
+        <v>44474</v>
       </c>
       <c r="AS5" s="9">
         <f t="shared" si="0"/>
-        <v>44510</v>
+        <v>44475</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" si="0"/>
-        <v>44511</v>
+        <v>44476</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="0"/>
-        <v>44512</v>
+        <v>44477</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="0"/>
-        <v>44513</v>
+        <v>44478</v>
       </c>
       <c r="AW5" s="11">
         <f t="shared" si="0"/>
-        <v>44514</v>
+        <v>44479</v>
       </c>
       <c r="AX5" s="10">
         <f>AW5+1</f>
-        <v>44515</v>
+        <v>44480</v>
       </c>
       <c r="AY5" s="9">
         <f>AX5+1</f>
-        <v>44516</v>
+        <v>44481</v>
       </c>
       <c r="AZ5" s="9">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
-        <v>44517</v>
+        <v>44482</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" si="1"/>
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" si="1"/>
-        <v>44519</v>
+        <v>44484</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="1"/>
-        <v>44520</v>
+        <v>44485</v>
       </c>
       <c r="BD5" s="11">
         <f t="shared" si="1"/>
-        <v>44521</v>
+        <v>44486</v>
       </c>
       <c r="BE5" s="10">
         <f>BD5+1</f>
-        <v>44522</v>
+        <v>44487</v>
       </c>
       <c r="BF5" s="9">
         <f>BE5+1</f>
-        <v>44523</v>
+        <v>44488</v>
       </c>
       <c r="BG5" s="9">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" si="2"/>
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="2"/>
-        <v>44526</v>
+        <v>44491</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="2"/>
-        <v>44527</v>
+        <v>44492</v>
       </c>
       <c r="BK5" s="11">
         <f t="shared" si="2"/>
-        <v>44528</v>
+        <v>44493</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2386,7 +2386,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="50">
         <v>44416</v>
@@ -2463,7 +2463,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="50">
         <f>E13+1</f>
@@ -2538,7 +2538,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="50">
         <f>E14+1</f>
@@ -2616,7 +2616,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="50">
         <f>E15+1</f>
@@ -2694,7 +2694,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="50">
         <f>E16+1</f>
@@ -2772,7 +2772,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="50">
         <f>E17+1</f>
@@ -2922,7 +2922,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="51">
         <f>E18+1</f>
@@ -3000,7 +3000,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="51">
         <f>E20-10</f>
@@ -3228,7 +3228,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="33">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D24" s="52">
         <v>44428</v>
@@ -3899,16 +3899,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C32">
     <cfRule type="dataBar" priority="14">
